--- a/data/AHLdelegacije - Konec rednega.xlsx
+++ b/data/AHLdelegacije - Konec rednega.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A635AC-3B79-4A44-82F5-473F64610380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953AAE3B-A283-41F1-A79A-7764B0DC4B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AHL" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="139">
   <si>
     <t>slo</t>
   </si>
@@ -443,6 +443,9 @@
   </si>
   <si>
     <t>Huber</t>
+  </si>
+  <si>
+    <t>statistika</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -527,6 +530,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BT21" sqref="BT21"/>
+    <sheetView topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AQ39" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1225,7 +1229,7 @@
         <v>15</v>
       </c>
       <c r="Y2">
-        <f t="shared" si="0"/>
+        <f>COUNTA(Y4:Y50)</f>
         <v>30</v>
       </c>
       <c r="Z2">
@@ -1233,8 +1237,8 @@
         <v>21</v>
       </c>
       <c r="AA2">
-        <f>COUNTA(AA4:AA22)</f>
-        <v>19</v>
+        <f>COUNTA(AA4:AA23)</f>
+        <v>20</v>
       </c>
       <c r="AB2">
         <f>COUNTA(AB4:AB49)</f>
@@ -2334,7 +2338,7 @@
       </c>
       <c r="CB6">
         <f>SUM(A2:BZ2)</f>
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="7" spans="1:80" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5215,7 +5219,6 @@
       <c r="Z24" s="9">
         <v>43859</v>
       </c>
-      <c r="AA24" s="10"/>
       <c r="AC24" t="s">
         <v>113</v>
       </c>
@@ -5470,10 +5473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CB46"/>
+  <dimension ref="A1:CB64"/>
   <sheetViews>
-    <sheetView topLeftCell="BH1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CA9" sqref="CA9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34:J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5534,7 +5537,7 @@
     <col min="57" max="58" width="10.28515625" customWidth="1"/>
     <col min="59" max="59" width="12.140625" customWidth="1"/>
     <col min="60" max="60" width="12" customWidth="1"/>
-    <col min="61" max="61" width="18" customWidth="1"/>
+    <col min="61" max="61" width="9.28515625" customWidth="1"/>
     <col min="62" max="62" width="11.7109375" customWidth="1"/>
     <col min="63" max="63" width="23" customWidth="1"/>
     <col min="64" max="64" width="12.5703125" customWidth="1"/>
@@ -5625,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="Y1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z1" t="s">
         <v>2</v>
@@ -5634,13 +5637,13 @@
         <v>2</v>
       </c>
       <c r="AB1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" t="s">
         <v>2</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>1</v>
       </c>
       <c r="AE1" t="s">
         <v>1</v>
@@ -5790,320 +5793,320 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:80" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:80" s="12" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <f>COUNTA(A4:A49)</f>
         <v>31</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="12">
         <f>COUNTA(B4:B50)</f>
         <v>30</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="12">
         <f>COUNTA(C4:C49)</f>
         <v>30</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="12">
         <f>COUNTA(D4:D49)</f>
         <v>27</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="12">
         <f>COUNTA(E4:E49)</f>
         <v>26</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="12">
         <f>COUNTA(F4:F49)</f>
         <v>25</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="12">
         <f>COUNTA(G4:G50)</f>
         <v>24</v>
       </c>
-      <c r="H2">
-        <f>COUNTA(H4:H47)</f>
+      <c r="H2" s="12">
+        <f>COUNTA(H4:H30)</f>
         <v>24</v>
       </c>
-      <c r="I2">
-        <f>COUNTA(I4:I50)</f>
+      <c r="I2" s="12">
+        <f>COUNTA(I4:I30)</f>
         <v>24</v>
       </c>
-      <c r="J2">
-        <f>COUNTA(J4:J49)</f>
+      <c r="J2" s="12">
+        <f>COUNTA(J4:J30)</f>
         <v>23</v>
       </c>
-      <c r="K2">
-        <f>COUNTA(K4:K50)</f>
+      <c r="K2" s="12">
+        <f>COUNTA(K4:K30)</f>
         <v>23</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="12">
         <f>COUNTA(L4:L50)</f>
         <v>23</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="12">
         <f>COUNTA(M4:M48)</f>
         <v>22</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="12">
         <f>COUNTA(N4:N50)</f>
         <v>22</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="12">
         <f>COUNTA(O4:O50)</f>
         <v>22</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="12">
         <f>COUNTA(P4:P49)</f>
         <v>21</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="12">
         <f>COUNTA(Q4:Q50)</f>
         <v>21</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="12">
         <f>COUNTA(R4:R48)</f>
         <v>21</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="12">
         <f>COUNTA(S4:S50)</f>
         <v>21</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="12">
         <f>COUNTA(T4:T44)</f>
         <v>21</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="12">
         <f>COUNTA(U4:U49)</f>
         <v>20</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="12">
         <f>COUNTA(V4:V48)</f>
         <v>20</v>
       </c>
-      <c r="W2">
-        <f>COUNTA(W4:W48)</f>
+      <c r="W2" s="12">
+        <f>COUNTA(W4:W23)</f>
         <v>20</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="12">
         <f>COUNTA(X4:X48)</f>
         <v>20</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="12">
         <f>COUNTA(Y4:Y48)</f>
         <v>20</v>
       </c>
-      <c r="Z2">
-        <f>COUNTA(Z4:Z49)</f>
+      <c r="Z2" s="12">
+        <f>COUNTA(Z4:Z48)</f>
         <v>20</v>
       </c>
-      <c r="AA2">
-        <f>COUNTA(AA4:AA48)</f>
+      <c r="AA2" s="12">
+        <f>COUNTA(AA4:AA49)</f>
         <v>20</v>
       </c>
-      <c r="AB2">
-        <f>COUNTA(AB4:AB50)</f>
+      <c r="AB2" s="12">
+        <f>COUNTA(AB4:AB48)</f>
         <v>20</v>
       </c>
-      <c r="AC2">
-        <f>COUNTA(AC4:AC46)</f>
+      <c r="AC2" s="12">
+        <f>COUNTA(AC4:AC50)</f>
         <v>20</v>
       </c>
-      <c r="AD2">
-        <f>COUNTA(AD4:AD22)</f>
-        <v>19</v>
-      </c>
-      <c r="AE2">
+      <c r="AD2" s="12">
+        <f>COUNTA(AD4:AD46)</f>
+        <v>20</v>
+      </c>
+      <c r="AE2" s="12">
         <f>COUNTA(AE4:AE42)</f>
         <v>19</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="12">
         <f>COUNTA(AF4:AF50)</f>
         <v>19</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="12">
         <f>COUNTA(AG4:AG49)</f>
         <v>19</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="12">
         <f>COUNTA(AH4:AH48)</f>
         <v>18</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="12">
         <f>COUNTA(AI4:AI49)</f>
         <v>18</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="12">
         <f>COUNTA(AJ4:AJ49)</f>
         <v>18</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="12">
         <f>COUNTA(AK4:AK48)</f>
         <v>18</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="12">
         <f>COUNTA(AL4:AL50)</f>
         <v>18</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="12">
         <f>COUNTA(AM4:AM48)</f>
         <v>18</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="12">
         <f>COUNTA(AN4:AN48)</f>
         <v>17</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="12">
         <f>COUNTA(AO4:AO28)</f>
         <v>17</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="12">
         <f>COUNTA(AP4:AP49)</f>
         <v>17</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="12">
         <f>COUNTA(AQ4:AQ49)</f>
         <v>17</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="12">
         <f>COUNTA(AR4:AR48)</f>
         <v>16</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="12">
         <f>COUNTA(AS4:AS47)</f>
         <v>16</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="12">
         <f>COUNTA(AT4:AT48)</f>
         <v>16</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="12">
         <f>COUNTA(AU4:AU48)</f>
         <v>16</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="12">
         <f>COUNTA(AV4:AV50)</f>
         <v>16</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="12">
         <f>COUNTA(AW4:AW49)</f>
         <v>16</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="12">
         <f>COUNTA(AX4:AX49)</f>
         <v>16</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="12">
         <f>COUNTA(AY4:AY48)</f>
         <v>15</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="12">
         <f>COUNTA(AZ4:AZ48)</f>
         <v>15</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" s="12">
         <f>COUNTA(BA4:BA50)</f>
         <v>15</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" s="12">
         <f>COUNTA(BB4:BB50)</f>
         <v>14</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" s="12">
         <f>COUNTA(BC4:BC48)</f>
         <v>14</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" s="12">
         <f>COUNTA(BD4:BD50)</f>
         <v>14</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" s="12">
         <f>COUNTA(BE4:BE49)</f>
         <v>14</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" s="12">
         <f>COUNTA(BF4:BF49)</f>
         <v>13</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" s="12">
         <f>COUNTA(BG4:BG47)</f>
         <v>13</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" s="12">
         <f>COUNTA(BH4:BH48)</f>
         <v>12</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" s="12">
         <f>COUNTA(BI4:BI50)</f>
         <v>10</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" s="12">
         <f>COUNTA(BJ4:BJ49)</f>
         <v>8</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" s="12">
         <f>COUNTA(BK4:BK48)</f>
         <v>8</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" s="12">
         <f>COUNTA(BL4:BL50)</f>
         <v>7</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" s="12">
         <f>COUNTA(BM4:BM49)</f>
         <v>6</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" s="12">
         <f>COUNTA(BN4:BN50)</f>
         <v>5</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" s="12">
         <f>COUNTA(BO4:BO50)</f>
         <v>3</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" s="12">
         <f>COUNTA(BP4:BP50)</f>
         <v>2</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" s="12">
         <f>COUNTA(BQ4:BQ50)</f>
         <v>1</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" s="12">
         <f>COUNTA(BR4:BR49)</f>
         <v>1</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" s="12">
         <f>COUNTA(BS4:BS50)</f>
         <v>1</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" s="12">
         <f>COUNTA(BT4:BT50)</f>
         <v>1</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" s="12">
         <f>COUNTA(BU4:BU50)</f>
         <v>1</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" s="12">
         <f>COUNTA(BV4:BV50)</f>
         <v>1</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" s="12">
         <f>COUNTA(BW4:BW50)</f>
         <v>1</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" s="12">
         <f>COUNTA(BX4:BX49)</f>
         <v>1</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" s="12">
         <f>COUNTA(BY4:BY50)</f>
         <v>1</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" s="12">
         <f>COUNTA(BZ4:BZ50)</f>
         <v>1</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" s="12">
         <f>COUNTA(CA4:CA50)</f>
         <v>1</v>
       </c>
@@ -6175,29 +6178,29 @@
       <c r="V3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="AE3" s="3" t="s">
         <v>31</v>
@@ -6414,29 +6417,29 @@
       <c r="V4" s="6">
         <v>43727</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="9">
+        <v>43730</v>
+      </c>
+      <c r="X4" s="6">
         <v>43699</v>
       </c>
-      <c r="X4" s="6">
+      <c r="Y4" s="6">
         <v>43752</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="Z4" s="6">
         <v>43727</v>
-      </c>
-      <c r="Z4" s="6">
-        <v>43759</v>
       </c>
       <c r="AA4" s="6">
         <v>43759</v>
       </c>
       <c r="AB4" s="6">
+        <v>43759</v>
+      </c>
+      <c r="AC4" s="6">
         <v>43752</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AD4" s="6">
         <v>43736</v>
-      </c>
-      <c r="AD4" s="9">
-        <v>43730</v>
       </c>
       <c r="AE4" s="9">
         <v>43759</v>
@@ -6653,29 +6656,29 @@
       <c r="V5" s="6">
         <v>43741</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="9">
+        <v>43734</v>
+      </c>
+      <c r="X5" s="6">
         <v>43764</v>
       </c>
-      <c r="X5" s="6">
+      <c r="Y5" s="6">
         <v>43699</v>
       </c>
-      <c r="Y5" s="6">
+      <c r="Z5" s="6">
         <v>43759</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="AA5" s="6">
         <v>43736</v>
       </c>
-      <c r="AA5" s="6">
+      <c r="AB5" s="6">
         <v>43743</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AC5" s="6">
         <v>43764</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AD5" s="6">
         <v>43743</v>
-      </c>
-      <c r="AD5" s="9">
-        <v>43734</v>
       </c>
       <c r="AE5" s="9">
         <v>43743</v>
@@ -6860,29 +6863,29 @@
       <c r="V6" s="6">
         <v>43743</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="9">
+        <v>43743</v>
+      </c>
+      <c r="X6" s="6">
         <v>43741</v>
-      </c>
-      <c r="X6" s="6">
-        <v>43736</v>
       </c>
       <c r="Y6" s="6">
         <v>43736</v>
       </c>
       <c r="Z6" s="6">
+        <v>43736</v>
+      </c>
+      <c r="AA6" s="6">
         <v>43743</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>87</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AC6" s="6">
         <v>43736</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>81</v>
-      </c>
-      <c r="AD6" s="9">
-        <v>43743</v>
       </c>
       <c r="AE6" s="10" t="s">
         <v>78</v>
@@ -6996,7 +6999,7 @@
         <v>80</v>
       </c>
       <c r="CB6">
-        <f>SUM(A2:CA2)</f>
+        <f>SUM(A2:BZ2)</f>
         <v>1224</v>
       </c>
     </row>
@@ -7067,29 +7070,29 @@
       <c r="V7" t="s">
         <v>77</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="X7" s="6">
+      <c r="X7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y7" s="6">
         <v>43743</v>
       </c>
-      <c r="Y7" s="6">
+      <c r="Z7" s="6">
         <v>43741</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>81</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>80</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AC7" s="6">
         <v>43741</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>80</v>
-      </c>
-      <c r="AD7" s="10" t="s">
-        <v>78</v>
       </c>
       <c r="AE7" s="10" t="s">
         <v>79</v>
@@ -7267,29 +7270,29 @@
       <c r="V8" t="s">
         <v>87</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="9">
+        <v>43757</v>
+      </c>
+      <c r="X8" t="s">
         <v>87</v>
       </c>
-      <c r="X8" s="6">
+      <c r="Y8" s="6">
         <v>43744</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>89</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>88</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AC8" s="6">
         <v>43743</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>92</v>
-      </c>
-      <c r="AD8" s="9">
-        <v>43757</v>
       </c>
       <c r="AE8" s="10" t="s">
         <v>94</v>
@@ -7467,29 +7470,29 @@
       <c r="V9" t="s">
         <v>88</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="10" t="s">
         <v>80</v>
       </c>
       <c r="X9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y9" t="s">
         <v>78</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>87</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>88</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>85</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>81</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>88</v>
-      </c>
-      <c r="AD9" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="AE9" s="10" t="s">
         <v>82</v>
@@ -7664,29 +7667,29 @@
       <c r="V10" t="s">
         <v>85</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="10" t="s">
         <v>88</v>
       </c>
       <c r="X10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y10" t="s">
         <v>81</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>88</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>82</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>109</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>89</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>103</v>
-      </c>
-      <c r="AD10" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="AE10" s="10" t="s">
         <v>92</v>
@@ -7858,29 +7861,29 @@
       <c r="V11" t="s">
         <v>109</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="X11" t="s">
         <v>85</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>89</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>92</v>
       </c>
       <c r="Z11" t="s">
         <v>92</v>
       </c>
       <c r="AA11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB11" t="s">
         <v>90</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>78</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>86</v>
-      </c>
-      <c r="AD11" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="AE11" s="10" t="s">
         <v>86</v>
@@ -8049,29 +8052,29 @@
       <c r="V12" t="s">
         <v>90</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="X12" t="s">
         <v>86</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>82</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>86</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>118</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>92</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>117</v>
-      </c>
-      <c r="AD12" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="AE12" s="10" t="s">
         <v>117</v>
@@ -8235,29 +8238,29 @@
       <c r="V13" t="s">
         <v>118</v>
       </c>
-      <c r="W13" t="s">
+      <c r="W13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X13" t="s">
         <v>107</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>103</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>107</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>86</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>112</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>82</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>90</v>
-      </c>
-      <c r="AD13" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="AE13" s="10" t="s">
         <v>118</v>
@@ -8421,8 +8424,8 @@
       <c r="V14" t="s">
         <v>112</v>
       </c>
-      <c r="W14" t="s">
-        <v>90</v>
+      <c r="W14" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="X14" t="s">
         <v>90</v>
@@ -8434,16 +8437,16 @@
         <v>90</v>
       </c>
       <c r="AA14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB14" t="s">
         <v>122</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>99</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>91</v>
-      </c>
-      <c r="AD14" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="AE14" s="10" t="s">
         <v>113</v>
@@ -8604,29 +8607,29 @@
       <c r="V15" t="s">
         <v>121</v>
       </c>
-      <c r="W15" t="s">
-        <v>116</v>
+      <c r="W15" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="X15" t="s">
         <v>116</v>
       </c>
       <c r="Y15" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="Z15" t="s">
         <v>91</v>
       </c>
       <c r="AA15" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB15" t="s">
         <v>115</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>86</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>112</v>
-      </c>
-      <c r="AD15" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="AE15" s="10" t="s">
         <v>121</v>
@@ -8787,29 +8790,29 @@
       <c r="V16" t="s">
         <v>115</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W16" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X16" t="s">
         <v>120</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>85</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>112</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>113</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>123</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>109</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>113</v>
-      </c>
-      <c r="AD16" s="10" t="s">
-        <v>118</v>
       </c>
       <c r="AE16" s="10" t="s">
         <v>115</v>
@@ -8967,28 +8970,28 @@
       <c r="V17" t="s">
         <v>93</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W17" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X17" t="s">
         <v>118</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>112</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>121</v>
       </c>
       <c r="Z17" t="s">
         <v>121</v>
       </c>
       <c r="AA17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB17" t="s">
         <v>93</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>112</v>
       </c>
-      <c r="AC17" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD17" s="10" t="s">
+      <c r="AD17" t="s">
         <v>121</v>
       </c>
       <c r="AE17" s="10" t="s">
@@ -9141,28 +9144,28 @@
       <c r="V18" t="s">
         <v>97</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W18" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X18" t="s">
         <v>123</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>114</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>123</v>
       </c>
       <c r="Z18" t="s">
         <v>123</v>
       </c>
       <c r="AA18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB18" t="s">
         <v>101</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>119</v>
       </c>
-      <c r="AC18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD18" s="10" t="s">
+      <c r="AD18" t="s">
         <v>104</v>
       </c>
       <c r="AE18" s="10" t="s">
@@ -9303,29 +9306,29 @@
       <c r="V19" t="s">
         <v>101</v>
       </c>
-      <c r="W19" t="s">
+      <c r="W19" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X19" t="s">
         <v>104</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>93</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>128</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>124</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>113</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>101</v>
-      </c>
-      <c r="AD19" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="AE19" s="10" t="s">
         <v>97</v>
@@ -9456,29 +9459,29 @@
       <c r="V20" t="s">
         <v>130</v>
       </c>
-      <c r="W20" t="s">
+      <c r="W20" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="X20" t="s">
         <v>127</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>115</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>97</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>93</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>121</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>124</v>
-      </c>
-      <c r="AD20" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="AE20" s="10" t="s">
         <v>101</v>
@@ -9588,28 +9591,28 @@
       <c r="V21" t="s">
         <v>132</v>
       </c>
-      <c r="W21" t="s">
+      <c r="W21" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="X21" t="s">
         <v>132</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>118</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>132</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>104</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>130</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>123</v>
       </c>
-      <c r="AC21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD21" s="10" t="s">
+      <c r="AD21" t="s">
         <v>102</v>
       </c>
       <c r="AE21" s="10" t="s">
@@ -9709,28 +9712,28 @@
       <c r="V22" t="s">
         <v>106</v>
       </c>
-      <c r="W22" t="s">
+      <c r="W22" s="10" t="s">
         <v>106</v>
       </c>
       <c r="X22" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y22" t="s">
         <v>104</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>101</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>102</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>104</v>
       </c>
-      <c r="AC22" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD22" s="10" t="s">
+      <c r="AD22" t="s">
         <v>106</v>
       </c>
       <c r="AE22" s="10" t="s">
@@ -9812,28 +9815,28 @@
       <c r="V23" t="s">
         <v>110</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" s="10" t="s">
         <v>110</v>
       </c>
       <c r="X23" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y23" t="s">
         <v>124</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>106</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>110</v>
       </c>
       <c r="AA23" t="s">
         <v>110</v>
       </c>
       <c r="AB23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC23" t="s">
         <v>106</v>
       </c>
-      <c r="AC23" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD23" s="10" t="s">
+      <c r="AD23" t="s">
         <v>110</v>
       </c>
       <c r="AE23" s="10"/>
@@ -9901,7 +9904,6 @@
       <c r="T24" t="s">
         <v>110</v>
       </c>
-      <c r="AD24" s="10"/>
       <c r="AE24" s="10"/>
       <c r="AO24" s="10"/>
       <c r="BK24" s="10"/>
@@ -10097,7 +10099,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -10108,27 +10110,296 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>110</v>
       </c>
+      <c r="H34" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34">
+        <v>31</v>
+      </c>
+      <c r="J34">
+        <f>COUNTIF($2:$2,I34)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>30</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35:J62" si="0">COUNTIF($2:$2,I35)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>29</v>
+      </c>
+      <c r="J36">
+        <f>COUNTIF($2:$2,I36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>28</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>27</v>
+      </c>
+      <c r="J38">
+        <f>COUNTIF($2:$2,I38)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>26</v>
+      </c>
+      <c r="J39">
+        <f>COUNTIF($2:$2,I39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>25</v>
+      </c>
+      <c r="J40">
+        <f>COUNTIF($2:$2,I40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>24</v>
+      </c>
+      <c r="J41">
+        <f>COUNTIF($2:$2,I41)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>23</v>
+      </c>
+      <c r="J42">
+        <f>COUNTIF($2:$2,I42)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>22</v>
+      </c>
+      <c r="J43">
+        <f>COUNTIF($2:$2,I43)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>21</v>
+      </c>
+      <c r="J44">
+        <f>COUNTIF($2:$2,I44)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <f>COUNTIF($2:$2,I45)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>19</v>
+      </c>
+      <c r="J46">
+        <f>COUNTIF($2:$2,I46)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>18</v>
+      </c>
+      <c r="J47">
+        <f>COUNTIF($2:$2,I47)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>17</v>
+      </c>
+      <c r="J48">
+        <f>COUNTIF($2:$2,I48)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>16</v>
+      </c>
+      <c r="J49">
+        <f>COUNTIF($2:$2,I49)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>15</v>
+      </c>
+      <c r="J50">
+        <f>COUNTIF($2:$2,I50)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <f>COUNTIF($2:$2,I51)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>13</v>
+      </c>
+      <c r="J52">
+        <f>COUNTIF($2:$2,I52)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>12</v>
+      </c>
+      <c r="J53">
+        <f>COUNTIF($2:$2,I53)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>11</v>
+      </c>
+      <c r="J54">
+        <f>COUNTIF($2:$2,I54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <f>COUNTIF($2:$2,I55)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>9</v>
+      </c>
+      <c r="J56">
+        <f>COUNTIF($2:$2,I56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>8</v>
+      </c>
+      <c r="J57">
+        <f>COUNTIF($2:$2,I57)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>7</v>
+      </c>
+      <c r="J58">
+        <f>COUNTIF($2:$2,I58)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>6</v>
+      </c>
+      <c r="J59">
+        <f>COUNTIF($2:$2,I59)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <f>COUNTIF($2:$2,I60)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <f>COUNTIF($2:$2,I61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <f>COUNTIF($2:$2,I62)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <f>COUNTIF($2:$2,I63)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <f>COUNTIF($2:$2,I64)</f>
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A1:CB46">
     <sortCondition descending="1" ref="A2:CB2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/AHLdelegacije - Konec rednega.xlsx
+++ b/data/AHLdelegacije - Konec rednega.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953AAE3B-A283-41F1-A79A-7764B0DC4B93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCD1347-9DD7-46DE-AA5E-940383B66904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="141">
   <si>
     <t>slo</t>
   </si>
@@ -446,13 +446,19 @@
   </si>
   <si>
     <t>statistika</t>
+  </si>
+  <si>
+    <t>Št tekem</t>
+  </si>
+  <si>
+    <t>Št sodnikov</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -462,6 +468,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -546,6 +558,1077 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4031933508311457E-2"/>
+          <c:y val="0.11339129483814524"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ahl atbela'!$J$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Št sodnikov</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ahl atbela'!$I$35:$I$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ahl atbela'!$J$35:$J$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C91A-4A3B-97CB-887DFB3C14F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1229460496"/>
+        <c:axId val="903910512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1229460496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="903910512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="903910512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1229460496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95F656E-C4D3-4436-8AC1-B7172D8CDB8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7819D3F1-2F4C-4E8B-9A11-163CAE1AA917}" name="Table1" displayName="Table1" ref="I34:J66" totalsRowCount="1">
+  <autoFilter ref="I34:J65" xr:uid="{224DEBB4-A667-44DE-A2EA-F348CFAE17F0}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{97F16966-780F-4566-AF56-12A6F15D860B}" name="Št tekem"/>
+    <tableColumn id="2" xr3:uid="{7384C8CF-C658-4E95-82ED-C764EC6BC5F0}" name="Št sodnikov">
+      <calculatedColumnFormula>COUNTIF($2:$2,I35)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -813,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB46"/>
   <sheetViews>
-    <sheetView topLeftCell="AL1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AQ39" sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5473,10 +6556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CB64"/>
+  <dimension ref="A1:CB65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34:J64"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10117,53 +11200,52 @@
       <c r="H34" t="s">
         <v>138</v>
       </c>
-      <c r="I34">
-        <v>31</v>
-      </c>
-      <c r="J34">
-        <f>COUNTIF($2:$2,I34)</f>
-        <v>1</v>
+      <c r="I34" t="s">
+        <v>139</v>
+      </c>
+      <c r="J34" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I35">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:J62" si="0">COUNTIF($2:$2,I35)</f>
-        <v>2</v>
+        <f>COUNTIF($2:$2,I35)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I36">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="J36">
         <f>COUNTIF($2:$2,I36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I37">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>COUNTIF($2:$2,I37)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I38">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="J38">
         <f>COUNTIF($2:$2,I38)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I39">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="J39">
         <f>COUNTIF($2:$2,I39)</f>
@@ -10172,7 +11254,7 @@
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I40">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="J40">
         <f>COUNTIF($2:$2,I40)</f>
@@ -10181,70 +11263,70 @@
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I41">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="J41">
         <f>COUNTIF($2:$2,I41)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I42">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J42">
         <f>COUNTIF($2:$2,I42)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I43">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J43">
         <f>COUNTIF($2:$2,I43)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I44">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J44">
         <f>COUNTIF($2:$2,I44)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I45">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J45">
         <f>COUNTIF($2:$2,I45)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I46">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J46">
         <f>COUNTIF($2:$2,I46)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I47">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J47">
         <f>COUNTIF($2:$2,I47)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I48">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J48">
         <f>COUNTIF($2:$2,I48)</f>
@@ -10253,25 +11335,25 @@
     </row>
     <row r="49" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J49">
         <f>COUNTIF($2:$2,I49)</f>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J50">
         <f>COUNTIF($2:$2,I50)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I51">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J51">
         <f>COUNTIF($2:$2,I51)</f>
@@ -10280,70 +11362,70 @@
     </row>
     <row r="52" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I52">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J52">
         <f>COUNTIF($2:$2,I52)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I53">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J53">
         <f>COUNTIF($2:$2,I53)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I54">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J54">
         <f>COUNTIF($2:$2,I54)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I55">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J55">
         <f>COUNTIF($2:$2,I55)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I56">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="J56">
         <f>COUNTIF($2:$2,I56)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I57">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J57">
         <f>COUNTIF($2:$2,I57)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I58">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J58">
         <f>COUNTIF($2:$2,I58)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I59">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J59">
         <f>COUNTIF($2:$2,I59)</f>
@@ -10352,7 +11434,7 @@
     </row>
     <row r="60" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I60">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J60">
         <f>COUNTIF($2:$2,I60)</f>
@@ -10361,45 +11443,59 @@
     </row>
     <row r="61" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I61">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J61">
         <f>COUNTIF($2:$2,I61)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I62">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J62">
         <f>COUNTIF($2:$2,I62)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I63">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="J63">
         <f>COUNTIF($2:$2,I63)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I64">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J64">
         <f>COUNTIF($2:$2,I64)</f>
-        <v>11</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="9:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>31</v>
+      </c>
+      <c r="J65">
+        <f>COUNTIF($2:$2,I65)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="A1:CB46">
-    <sortCondition descending="1" ref="A2:CB2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I35:J65">
+    <sortCondition ref="I35"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>